--- a/To-Do-List.xlsx
+++ b/To-Do-List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glebavdeev/Desktop/Flightgear/livery creation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE490DC5-0C48-1248-A6CD-D171AE534D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA0929-5DA1-EB42-8F95-DF7189EA039C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="27240" windowHeight="15940" xr2:uid="{6D991194-D529-B14C-A9FD-D5CA19D1EBD1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Airline</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Only need to make minor changes</t>
-  </si>
-  <si>
     <t>Asiana Airlines</t>
   </si>
   <si>
@@ -81,6 +78,18 @@
   </si>
   <si>
     <t>Peach Airlines</t>
+  </si>
+  <si>
+    <t>Korean Air</t>
+  </si>
+  <si>
+    <t>Last update</t>
+  </si>
+  <si>
+    <t>Engine done + main colors</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -102,7 +111,7 @@
       <name val="Grantha Sangam MN Regular"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,13 +120,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -144,6 +159,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229DDC5A-45C1-2A4F-AD08-0D0BFC7203A5}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -490,9 +512,10 @@
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
     <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29">
+    <row r="1" spans="1:5" ht="29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,90 +528,118 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
